--- a/doc/Signal-Conditioning/LVDT_SC.xlsx
+++ b/doc/Signal-Conditioning/LVDT_SC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa11995d18b3ed5a/TUM/Raumfahrtelektronik/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa11995d18b3ed5a/TUM/Raumfahrtelektronik/Projekt/Signal-Conditioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="10_ncr:40000_{5C11D3B2-54B6-4935-A73C-19570E674098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A45CA146-AB1B-498D-88C7-5817EDB1DADE}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="10_ncr:40000_{5C11D3B2-54B6-4935-A73C-19570E674098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E434B2F2-252C-4A56-8F01-AB13C3425BDF}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="0" windowWidth="11865" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1485,6 +1485,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1787,16 +1791,16 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.265625" customWidth="1"/>
-    <col min="4" max="4" width="26.9296875" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1815,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1854,13 +1858,13 @@
       </c>
       <c r="G3" s="6">
         <f>B17</f>
-        <v>34.535156789611818</v>
+        <v>16.922226826909796</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1885,7 +1889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1905,7 +1909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1929,7 +1933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1953,7 +1957,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1978,7 +1982,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2002,7 +2006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2017,7 +2021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2046,7 +2050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2061,7 +2065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2076,7 +2080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2086,12 +2090,12 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>39</v>
@@ -2100,13 +2104,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
       <c r="B17">
         <f>B16/(B8*0.001)/0.0005/1000</f>
-        <v>34.535156789611818</v>
+        <v>16.922226826909796</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -2115,7 +2119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -2125,12 +2129,13 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <f>B16</f>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>39</v>
@@ -2139,19 +2144,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20">
         <f>1.2*$B$17/B19-2</f>
-        <v>6.288437629506836</v>
+        <v>6.2884376295068378</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2162,7 +2167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -2172,12 +2177,13 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23">
-        <v>-5</v>
+        <f>-B16</f>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>39</v>
@@ -2186,7 +2192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2197,19 +2203,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
       <c r="B25">
         <f>-1.2*$B$17/B23-2</f>
-        <v>6.288437629506836</v>
+        <v>6.2884376295068378</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2219,13 +2225,13 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
       <c r="B27">
         <f>1.2*B17*(1/(B28+2)-1/(B29+2))</f>
-        <v>5.000264013939935</v>
+        <v>2.4501293668305686</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>39</v>
@@ -2234,7 +2240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2256,7 +2262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -2266,7 +2272,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>54</v>
       </c>
@@ -2280,7 +2286,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
@@ -2291,30 +2297,30 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B33">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B34">
         <f>1/B33+1/(B33+B32)</f>
-        <v>1.000999000999001E-3</v>
+        <v>7.1528431624297414E-4</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
@@ -2325,25 +2331,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B36">
         <f>DEGREES((ATAN(B3*B34*B35)))</f>
-        <v>1.4048673350441208</v>
+        <v>1.0039751580953571</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B37">
         <f>DEGREES((ATAN(1/(B3*B34*B35))))</f>
-        <v>88.595132664955884</v>
+        <v>88.996024841904642</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>55</v>
@@ -2374,9 +2380,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7.3622759217795304</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>4.9126637554585102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8.6317075667530805</v>
       </c>
@@ -2403,7 +2409,7 @@
         <v>4.5851528384279403</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10.5305851535178</v>
       </c>
@@ -2419,7 +2425,7 @@
         <v>3.5371179039301301</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12.8471942333427</v>
       </c>
@@ -2435,7 +2441,7 @@
         <v>3.2751091703056701</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14.765812190633801</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>3.73362445414846</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17.311789746714801</v>
       </c>
@@ -2451,7 +2457,7 @@
         <v>3.5371179039301301</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20.296754446366599</v>
       </c>
@@ -2459,7 +2465,7 @@
         <v>3.2751091703056701</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24.274305022673602</v>
       </c>
@@ -2467,7 +2473,7 @@
         <v>3.07860262008733</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28.459773114729899</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>2.8820960698689801</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32.709995440834099</v>
       </c>
@@ -2483,7 +2489,7 @@
         <v>2.6855895196506498</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>39.120166168399798</v>
       </c>
@@ -2491,7 +2497,7 @@
         <v>2.4890829694323102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>46.786536666181597</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>2.2925764192139702</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>55.955284131286597</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>2.0960698689956301</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>66.920829052862203</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>1.9650655021834</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>81.642651055457904</v>
       </c>
@@ -2523,7 +2529,7 @@
         <v>1.76855895196506</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>112.22415803677499</v>
       </c>

--- a/doc/Signal-Conditioning/LVDT_SC.xlsx
+++ b/doc/Signal-Conditioning/LVDT_SC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa11995d18b3ed5a/TUM/Raumfahrtelektronik/Projekt/Signal-Conditioning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa11995d18b3ed5a/TUM/Raumfahrtelektronik/Projekt/HighPrecisionLVDT/doc/Signal-Conditioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="10_ncr:40000_{5C11D3B2-54B6-4935-A73C-19570E674098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E434B2F2-252C-4A56-8F01-AB13C3425BDF}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="10_ncr:40000_{5C11D3B2-54B6-4935-A73C-19570E674098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7476090-0F8E-4977-8E96-F1A83770432E}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="0" windowWidth="11865" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="70">
   <si>
     <t>A</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>nF</t>
+  </si>
+  <si>
+    <t>Umin</t>
+  </si>
+  <si>
+    <t>Umax</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_exc </t>
   </si>
 </sst>
 </file>
@@ -1485,10 +1497,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1791,16 +1799,17 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.265625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1815,12 +1824,12 @@
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>350</v>
+        <v>344.8</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1839,13 +1848,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <f>B2*10</f>
-        <v>3500</v>
+        <v>3448</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1858,19 +1867,19 @@
       </c>
       <c r="G3" s="6">
         <f>B17</f>
-        <v>16.922226826909796</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2">
         <f>0.000035/B3</f>
-        <v>9.9999999999999986E-9</v>
+        <v>1.0150812064965196E-8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1883,13 +1892,13 @@
       </c>
       <c r="G4" s="6">
         <f>B28</f>
-        <v>6.2880000000000003</v>
+        <v>6.24</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1909,7 +1918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1927,13 +1936,13 @@
       </c>
       <c r="G6">
         <f>B4/0.000000001</f>
-        <v>9.9999999999999982</v>
+        <v>10.150812064965196</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1951,13 +1960,13 @@
       </c>
       <c r="G7">
         <f>B12/0.000000001</f>
-        <v>285.71428571428572</v>
+        <v>290.02320185614849</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1976,13 +1985,13 @@
       </c>
       <c r="G8">
         <f>B13/0.000000001</f>
-        <v>285.71428571428572</v>
+        <v>290.02320185614849</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2000,13 +2009,13 @@
       </c>
       <c r="G9" s="9">
         <f>B14/0.000000001</f>
-        <v>285.71428571428572</v>
+        <v>290.02320185614849</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2021,7 +2030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2034,14 +2043,24 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f>10.15*0.000000001</f>
+        <v>1.0150000000000002E-8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12">
         <f>0.0001/$B$2</f>
-        <v>2.8571428571428575E-7</v>
+        <v>2.9002320185614852E-7</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -2049,14 +2068,24 @@
       <c r="D12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12">
+        <f>0.000035/G11</f>
+        <v>3448.2758620689647</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13">
         <f>0.0001/$B$2</f>
-        <v>2.8571428571428575E-7</v>
+        <v>2.9002320185614852E-7</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -2065,13 +2094,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14">
         <f>0.0001/$B$2</f>
-        <v>2.8571428571428575E-7</v>
+        <v>2.9002320185614852E-7</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -2080,7 +2109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2090,12 +2119,12 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="B16">
-        <v>2.4500000000000002</v>
+        <v>2.4467819999999998</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>39</v>
@@ -2103,14 +2132,24 @@
       <c r="D16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16">
+        <f>-B16+B27</f>
+        <v>1.4383048543689103E-2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
       <c r="B17">
         <f>B16/(B8*0.001)/0.0005/1000</f>
-        <v>16.922226826909796</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -2118,8 +2157,18 @@
       <c r="D17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17">
+        <f>B16+B27</f>
+        <v>4.9079470485436882</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -2129,13 +2178,13 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>44</v>
       </c>
       <c r="B19">
         <f>B16</f>
-        <v>2.4500000000000002</v>
+        <v>2.4467819999999998</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>39</v>
@@ -2144,7 +2193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2156,7 +2205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2167,7 +2216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -2177,13 +2226,13 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23">
         <f>-B16</f>
-        <v>-2.4500000000000002</v>
+        <v>-2.4467819999999998</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>39</v>
@@ -2192,7 +2241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2203,7 +2252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2215,7 +2264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2225,13 +2274,13 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>44</v>
       </c>
       <c r="B27">
         <f>1.2*B17*(1/(B28+2)-1/(B29+2))</f>
-        <v>2.4501293668305686</v>
+        <v>2.4611650485436889</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>39</v>
@@ -2240,18 +2289,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>46</v>
       </c>
       <c r="B28">
-        <v>6.2880000000000003</v>
+        <v>6.24</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2262,7 +2311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -2272,7 +2321,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>54</v>
       </c>
@@ -2286,70 +2335,70 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B32">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B33">
-        <v>1400</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B34">
         <f>1/B33+1/(B33+B32)</f>
-        <v>7.1528431624297414E-4</v>
+        <v>10000000.0001</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B35" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>1.0000000000000001E-15</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B36">
         <f>DEGREES((ATAN(B3*B34*B35)))</f>
-        <v>1.0039751580953571</v>
+        <v>1.9755584768479401E-3</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B37">
         <f>DEGREES((ATAN(1/(B3*B34*B35))))</f>
-        <v>88.996024841904642</v>
+        <v>89.998024441523157</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>55</v>
@@ -2377,12 +2426,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2393,7 +2442,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>7.3622759217795304</v>
       </c>
@@ -2401,7 +2450,7 @@
         <v>4.9126637554585102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>8.6317075667530805</v>
       </c>
@@ -2409,7 +2458,7 @@
         <v>4.5851528384279403</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10.5305851535178</v>
       </c>
@@ -2425,7 +2474,7 @@
         <v>3.5371179039301301</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>12.8471942333427</v>
       </c>
@@ -2441,7 +2490,7 @@
         <v>3.2751091703056701</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>14.765812190633801</v>
       </c>
@@ -2449,7 +2498,7 @@
         <v>3.73362445414846</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>17.311789746714801</v>
       </c>
@@ -2457,7 +2506,7 @@
         <v>3.5371179039301301</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>20.296754446366599</v>
       </c>
@@ -2465,23 +2514,39 @@
         <v>3.2751091703056701</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>24.274305022673602</v>
       </c>
       <c r="B9">
         <v>3.07860262008733</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>A9</f>
+        <v>24.274305022673602</v>
+      </c>
+      <c r="E9">
+        <f>B9</f>
+        <v>3.07860262008733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>28.459773114729899</v>
       </c>
       <c r="B10">
         <v>2.8820960698689801</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>A10</f>
+        <v>28.459773114729899</v>
+      </c>
+      <c r="E10">
+        <f>B10</f>
+        <v>2.8820960698689801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>32.709995440834099</v>
       </c>
@@ -2489,15 +2554,22 @@
         <v>2.6855895196506498</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>39.120166168399798</v>
       </c>
       <c r="B12">
         <v>2.4890829694323102</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>(E10-E9)/(D10-D9)*(E12-E9)+D9</f>
+        <v>24.277995393588338</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>46.786536666181597</v>
       </c>
@@ -2505,7 +2577,7 @@
         <v>2.2925764192139702</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>55.955284131286597</v>
       </c>
@@ -2513,7 +2585,7 @@
         <v>2.0960698689956301</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>66.920829052862203</v>
       </c>
@@ -2521,7 +2593,7 @@
         <v>1.9650655021834</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>81.642651055457904</v>
       </c>
@@ -2529,7 +2601,7 @@
         <v>1.76855895196506</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>112.22415803677499</v>
       </c>

--- a/doc/Signal-Conditioning/LVDT_SC.xlsx
+++ b/doc/Signal-Conditioning/LVDT_SC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa11995d18b3ed5a/TUM/Raumfahrtelektronik/Projekt/HighPrecisionLVDT/doc/Signal-Conditioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="10_ncr:40000_{5C11D3B2-54B6-4935-A73C-19570E674098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7476090-0F8E-4977-8E96-F1A83770432E}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="10_ncr:40000_{5C11D3B2-54B6-4935-A73C-19570E674098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD11A65B-D6A3-445C-B17D-D7CC8A306DD9}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1497,6 +1497,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1799,7 +1803,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1867,7 +1871,7 @@
       </c>
       <c r="G3" s="6">
         <f>B17</f>
-        <v>16.899999999999999</v>
+        <v>15.022793203481141</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>26</v>
@@ -2124,7 +2128,7 @@
         <v>37</v>
       </c>
       <c r="B16">
-        <v>2.4467819999999998</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>39</v>
@@ -2137,7 +2141,7 @@
       </c>
       <c r="G16">
         <f>-B16+B27</f>
-        <v>1.4383048543689103E-2</v>
+        <v>1.2785417982690284E-2</v>
       </c>
       <c r="H16" t="s">
         <v>68</v>
@@ -2149,7 +2153,7 @@
       </c>
       <c r="B17">
         <f>B16/(B8*0.001)/0.0005/1000</f>
-        <v>16.899999999999999</v>
+        <v>15.022793203481141</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -2162,7 +2166,7 @@
       </c>
       <c r="G17">
         <f>B16+B27</f>
-        <v>4.9079470485436882</v>
+        <v>4.3627854179826899</v>
       </c>
       <c r="H17" t="s">
         <v>68</v>
@@ -2184,7 +2188,7 @@
       </c>
       <c r="B19">
         <f>B16</f>
-        <v>2.4467819999999998</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>39</v>
@@ -2199,7 +2203,7 @@
       </c>
       <c r="B20">
         <f>1.2*$B$17/B19-2</f>
-        <v>6.2884376295068378</v>
+        <v>6.288437629506836</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>26</v>
@@ -2232,7 +2236,7 @@
       </c>
       <c r="B23">
         <f>-B16</f>
-        <v>-2.4467819999999998</v>
+        <v>-2.1749999999999998</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>39</v>
@@ -2258,7 +2262,7 @@
       </c>
       <c r="B25">
         <f>-1.2*$B$17/B23-2</f>
-        <v>6.2884376295068378</v>
+        <v>6.288437629506836</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -2280,7 +2284,7 @@
       </c>
       <c r="B27">
         <f>1.2*B17*(1/(B28+2)-1/(B29+2))</f>
-        <v>2.4611650485436889</v>
+        <v>2.1877854179826901</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>39</v>

--- a/doc/Signal-Conditioning/LVDT_SC.xlsx
+++ b/doc/Signal-Conditioning/LVDT_SC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa11995d18b3ed5a/TUM/Raumfahrtelektronik/Projekt/HighPrecisionLVDT/doc/Signal-Conditioning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="10_ncr:40000_{5C11D3B2-54B6-4935-A73C-19570E674098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD11A65B-D6A3-445C-B17D-D7CC8A306DD9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C41D2-D781-4292-A74C-81A9345549F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1364,15 +1364,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
+      <xdr:colOff>14287</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>35443</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1388,7 +1388,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1401,8 +1401,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077075" y="0"/>
-          <a:ext cx="7772400" cy="6193356"/>
+          <a:off x="6186487" y="0"/>
+          <a:ext cx="4967288" cy="4428654"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1497,10 +1497,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1803,17 +1799,17 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.265625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1824,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1852,7 +1848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1877,7 +1873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +1898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1922,7 +1918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1946,7 +1942,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1964,13 +1960,13 @@
       </c>
       <c r="G7">
         <f>B12/0.000000001</f>
-        <v>290.02320185614849</v>
+        <v>319.0255220417634</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1989,13 +1985,13 @@
       </c>
       <c r="G8">
         <f>B13/0.000000001</f>
-        <v>290.02320185614849</v>
+        <v>319.0255220417634</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2013,13 +2009,13 @@
       </c>
       <c r="G9" s="9">
         <f>B14/0.000000001</f>
-        <v>290.02320185614849</v>
+        <v>319.0255220417634</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2034,7 +2030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2058,13 +2054,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12">
-        <f>0.0001/$B$2</f>
-        <v>2.9002320185614852E-7</v>
+        <f>0.0001/$B$2*1.1</f>
+        <v>3.1902552204176341E-7</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -2083,13 +2079,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13">
-        <f>0.0001/$B$2</f>
-        <v>2.9002320185614852E-7</v>
+        <f>0.0001/$B$2*1.1</f>
+        <v>3.1902552204176341E-7</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -2098,13 +2094,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14">
-        <f>0.0001/$B$2</f>
-        <v>2.9002320185614852E-7</v>
+        <f>0.0001/$B$2*1.1</f>
+        <v>3.1902552204176341E-7</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -2113,7 +2109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2123,7 +2119,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2147,7 +2143,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2172,7 +2168,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -2182,7 +2178,7 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2197,7 +2193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2209,7 +2205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2220,7 +2216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -2230,7 +2226,7 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2245,7 +2241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2256,7 +2252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2268,7 +2264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2278,7 +2274,7 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2293,7 +2289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2304,7 +2300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2315,7 +2311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -2325,7 +2321,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>54</v>
       </c>
@@ -2339,7 +2335,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
@@ -2350,7 +2346,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>58</v>
       </c>
@@ -2361,7 +2357,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>60</v>
       </c>
@@ -2373,7 +2369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
@@ -2384,7 +2380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
@@ -2396,7 +2392,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>63</v>
       </c>
@@ -2433,9 +2429,9 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2446,7 +2442,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7.3622759217795304</v>
       </c>
@@ -2454,7 +2450,7 @@
         <v>4.9126637554585102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8.6317075667530805</v>
       </c>
@@ -2462,7 +2458,7 @@
         <v>4.5851528384279403</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10.5305851535178</v>
       </c>
@@ -2478,7 +2474,7 @@
         <v>3.5371179039301301</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12.8471942333427</v>
       </c>
@@ -2494,7 +2490,7 @@
         <v>3.2751091703056701</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14.765812190633801</v>
       </c>
@@ -2502,7 +2498,7 @@
         <v>3.73362445414846</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17.311789746714801</v>
       </c>
@@ -2510,7 +2506,7 @@
         <v>3.5371179039301301</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20.296754446366599</v>
       </c>
@@ -2518,7 +2514,7 @@
         <v>3.2751091703056701</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24.274305022673602</v>
       </c>
@@ -2534,7 +2530,7 @@
         <v>3.07860262008733</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28.459773114729899</v>
       </c>
@@ -2550,7 +2546,7 @@
         <v>2.8820960698689801</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32.709995440834099</v>
       </c>
@@ -2558,7 +2554,7 @@
         <v>2.6855895196506498</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>39.120166168399798</v>
       </c>
@@ -2573,7 +2569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>46.786536666181597</v>
       </c>
@@ -2581,7 +2577,7 @@
         <v>2.2925764192139702</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>55.955284131286597</v>
       </c>
@@ -2589,7 +2585,7 @@
         <v>2.0960698689956301</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>66.920829052862203</v>
       </c>
@@ -2597,7 +2593,7 @@
         <v>1.9650655021834</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>81.642651055457904</v>
       </c>
@@ -2605,7 +2601,7 @@
         <v>1.76855895196506</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>112.22415803677499</v>
       </c>
